--- a/G5的MOXA功能.xlsx
+++ b/G5的MOXA功能.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\個人資料夾\Linda\project\群創充電器\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linda\MPLABXProjects\Inner-G5(2021_05_21)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23987A2B-4138-4075-A498-B565A4AFEA62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28603609-E9D5-4D0F-9808-6EFBF58CF7DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E02C3244-F974-4A55-93D9-19765DA2F73C}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,39 +261,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>將用位置0x06做的變更reset電壓點改為原本的59.5v   額定安時數寫0x02(0.2Ah 如果是0.1Ah會因為實際安時數消耗一點就只讀出來0x00)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{01 06 00 05 00 01 + CRC}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>將reset電壓點設為39v，額定安時數改為0.2Ah</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{01 06 00 06 00 01 + CRC}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用在消除負安時</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用在將額定安時數改為實際真正容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>將reset電壓點設為輸入值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{01 06 00 06 12 34 + CRC}=&gt;接reset電壓點改為46.6v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -989,10 +973,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C187C68-AC12-4D4C-B294-9E01F09DDBB6}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1020,81 +1004,65 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
       <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
         <v>66</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E7" s="3" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="3" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>